--- a/SP_Sklad/TempLate/nakladnaMaked.xlsx
+++ b/SP_Sklad/TempLate/nakladnaMaked.xlsx
@@ -588,6 +588,102 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -597,30 +693,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -639,83 +711,11 @@
     <xf numFmtId="2" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1087,11 +1087,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1107,11 +1105,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
       <c r="E1" s="5" t="e">
         <f>CONCATENATE("("&amp;WayBillList_MatName," )")</f>
         <v>#NAME?</v>
@@ -1121,16 +1119,16 @@
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="69" t="e">
+      <c r="B2" s="42" t="e">
         <f>CONCATENATE("за рецептом ",WayBillList_RecipeName)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="8"/>
@@ -1142,11 +1140,11 @@
       <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="65" t="e">
+      <c r="C4" s="28"/>
+      <c r="D4" s="31" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
       </c>
@@ -1156,9 +1154,9 @@
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="63"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="66"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="32"/>
       <c r="E5" s="8"/>
       <c r="F5" s="5"/>
       <c r="G5" s="4"/>
@@ -1166,11 +1164,11 @@
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6"/>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="59" t="e">
+      <c r="C6" s="44"/>
+      <c r="D6" s="38" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
@@ -1181,9 +1179,9 @@
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="60"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="7"/>
@@ -1191,11 +1189,11 @@
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8"/>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="59" t="e">
+      <c r="C8" s="44"/>
+      <c r="D8" s="38" t="e">
         <f>IF(D6 &lt; WayBillList_WriteOnDate,WayBillList_WriteOnDate,"")</f>
         <v>#NAME?</v>
       </c>
@@ -1206,9 +1204,9 @@
     </row>
     <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="60"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="7"/>
@@ -1216,11 +1214,11 @@
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10"/>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="44" t="e">
+      <c r="C10" s="44"/>
+      <c r="D10" s="40" t="e">
         <f>WayBillList_FROMWH</f>
         <v>#NAME?</v>
       </c>
@@ -1231,9 +1229,9 @@
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="45"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="7"/>
@@ -1241,11 +1239,11 @@
     </row>
     <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12"/>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="44" t="e">
+      <c r="C12" s="44"/>
+      <c r="D12" s="40" t="e">
         <f>WayBillList_AmountIn</f>
         <v>#NAME?</v>
       </c>
@@ -1256,9 +1254,9 @@
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="45"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="41"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="7"/>
@@ -1266,11 +1264,11 @@
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14"/>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="44" t="e">
+      <c r="C14" s="44"/>
+      <c r="D14" s="40" t="e">
         <f>WayBillList_AmountOut</f>
         <v>#NAME?</v>
       </c>
@@ -1281,9 +1279,9 @@
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="45"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="41"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="7"/>
@@ -1291,11 +1289,11 @@
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16"/>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="38" t="e">
+      <c r="C16" s="44"/>
+      <c r="D16" s="62" t="e">
         <f>D14/D12</f>
         <v>#NAME?</v>
       </c>
@@ -1306,9 +1304,9 @@
     </row>
     <row r="17" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="39"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="63"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="7"/>
@@ -1316,11 +1314,11 @@
     </row>
     <row r="18" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18"/>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="40" t="e">
+      <c r="C18" s="44"/>
+      <c r="D18" s="64" t="e">
         <f>WayBillList_SUMMALL</f>
         <v>#NAME?</v>
       </c>
@@ -1331,9 +1329,9 @@
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="41"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="65"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="7"/>
@@ -1341,11 +1339,11 @@
     </row>
     <row r="20" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20"/>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="42" t="e">
+      <c r="C20" s="44"/>
+      <c r="D20" s="66" t="e">
         <f>WayBillList_PRICE</f>
         <v>#NAME?</v>
       </c>
@@ -1356,9 +1354,9 @@
     </row>
     <row r="21" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="43"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="67"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="7"/>
@@ -1366,11 +1364,11 @@
     </row>
     <row r="22" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22"/>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="44" t="e">
+      <c r="C22" s="44"/>
+      <c r="D22" s="40" t="e">
         <f>WayBillList_DocStatus</f>
         <v>#NAME?</v>
       </c>
@@ -1381,9 +1379,9 @@
     </row>
     <row r="23" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="45"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="41"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="7"/>
@@ -1416,37 +1414,37 @@
       <c r="C27" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="50"/>
-      <c r="E27" s="36" t="s">
+      <c r="D27" s="35"/>
+      <c r="E27" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="F27" s="36" t="s">
+      <c r="F27" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="G27" s="51" t="s">
+      <c r="G27" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="H27" s="36" t="s">
+      <c r="H27" s="47" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="37"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="48"/>
     </row>
     <row r="29" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="10">
         <v>1</v>
       </c>
-      <c r="C29" s="46">
+      <c r="C29" s="68">
         <v>2</v>
       </c>
-      <c r="D29" s="47"/>
+      <c r="D29" s="69"/>
       <c r="E29" s="10">
         <v>3</v>
       </c>
@@ -1461,12 +1459,12 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="54" t="e">
+      <c r="B30" s="55" t="e">
         <f>MGRP_GrpName</f>
         <v>#NAME?</v>
       </c>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
       <c r="E30" s="15"/>
       <c r="F30" s="26" t="e">
         <f>MGRP_AMOUNT</f>
@@ -1484,11 +1482,11 @@
         <f>WayBillItems_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="C31" s="27" t="e">
+      <c r="C31" s="59" t="e">
         <f>WayBillItems_MATNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D31" s="28"/>
+      <c r="D31" s="60"/>
       <c r="E31" s="11" t="e">
         <f>WayBillItems_MSRNAME</f>
         <v>#NAME?</v>
@@ -1512,10 +1510,10 @@
       <c r="H32"/>
     </row>
     <row r="33" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F33" s="56" t="s">
+      <c r="F33" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="G33" s="57"/>
+      <c r="G33" s="58"/>
       <c r="H33" s="14" t="s">
         <v>26</v>
       </c>
@@ -1539,20 +1537,20 @@
       <c r="E36" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="F36" s="50"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="36" t="s">
+      <c r="F36" s="35"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="47" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="49"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="51"/>
     </row>
     <row r="38" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="11" t="e">
@@ -1567,12 +1565,12 @@
         <f>TechProc_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="E38" s="27" t="e">
+      <c r="E38" s="59" t="e">
         <f>TechProc_PERSONNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="F38" s="28"/>
-      <c r="G38" s="29"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="61"/>
       <c r="H38" s="13" t="e">
         <f>TechProc_OUT</f>
         <v>#NAME?</v>
@@ -1656,56 +1654,30 @@
     </row>
     <row r="51" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="52" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="E36:G37"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="D36:D37"/>
     <mergeCell ref="B4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="B1:D1"/>
@@ -1722,28 +1694,6 @@
     <mergeCell ref="B20:C21"/>
     <mergeCell ref="B14:C15"/>
     <mergeCell ref="B8:C9"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="E36:G37"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="B22:C23"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/SP_Sklad/TempLate/nakladnaMaked.xlsx
+++ b/SP_Sklad/TempLate/nakladnaMaked.xlsx
@@ -1,30 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\palamarchuk-sv\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95AC1D31-7BD1-4CDD-B8E3-8A5D22DF87D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="840" windowWidth="14175" windowHeight="7260"/>
+    <workbookView xWindow="5160" yWindow="645" windowWidth="21600" windowHeight="12750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="grpRange">Лист1!#REF!</definedName>
-    <definedName name="MGRP">Лист1!$A$30:$H$33</definedName>
+    <definedName name="MGRP">Лист1!$A$31:$H$34</definedName>
     <definedName name="range1">Лист1!#REF!</definedName>
     <definedName name="sectionPrice">Лист1!#REF!</definedName>
-    <definedName name="TechProc">Лист1!$A$38:$H$39</definedName>
+    <definedName name="TechProc">Лист1!$A$39:$H$40</definedName>
     <definedName name="tpRange">Лист1!#REF!</definedName>
-    <definedName name="WayBillItems">Лист1!$A$31:$H$32</definedName>
+    <definedName name="WayBillItems">Лист1!$A$32:$H$33</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Од. вим.</t>
   </si>
@@ -105,12 +122,15 @@
   </si>
   <si>
     <t>sum_Summ</t>
+  </si>
+  <si>
+    <t>Додаткові витрати</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="[$-FC22]d\ mmmm\ yyyy&quot; р.&quot;;@"/>
@@ -251,7 +271,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -524,36 +544,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="55"/>
+      </left>
+      <right style="hair">
+        <color indexed="55"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="55"/>
+      </right>
+      <top style="thin">
+        <color indexed="55"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -577,7 +620,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -588,16 +631,118 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -609,113 +754,20 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -795,6 +847,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -842,7 +897,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -875,9 +930,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -910,6 +982,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1085,9 +1174,9 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1105,583 +1194,575 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="5" t="e">
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="4" t="e">
         <f>CONCATENATE("("&amp;WayBillList_MatName," )")</f>
         <v>#NAME?</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="42" t="e">
+      <c r="B2" s="68" t="e">
         <f>CONCATENATE("за рецептом ",WayBillList_RecipeName)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="8"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="31" t="e">
+      <c r="C4" s="61"/>
+      <c r="D4" s="64" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
     </row>
     <row r="5" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="29"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6"/>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="38" t="e">
+      <c r="C6" s="30"/>
+      <c r="D6" s="57" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8"/>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="38" t="e">
+      <c r="C8" s="30"/>
+      <c r="D8" s="57" t="e">
         <f>IF(D6 &lt; WayBillList_WriteOnDate,WayBillList_WriteOnDate,"")</f>
         <v>#NAME?</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10"/>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="40" t="e">
+      <c r="C10" s="30"/>
+      <c r="D10" s="43" t="e">
         <f>WayBillList_FROMWH</f>
         <v>#NAME?</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12"/>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="40" t="e">
+      <c r="C12" s="30"/>
+      <c r="D12" s="43" t="e">
         <f>WayBillList_AmountIn</f>
         <v>#NAME?</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14"/>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="40" t="e">
+      <c r="C14" s="30"/>
+      <c r="D14" s="43" t="e">
         <f>WayBillList_AmountOut</f>
         <v>#NAME?</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16"/>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="62" t="e">
+      <c r="C16" s="30"/>
+      <c r="D16" s="37" t="e">
         <f>D14/D12</f>
         <v>#NAME?</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18"/>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="64" t="e">
+      <c r="C18" s="30"/>
+      <c r="D18" s="39" t="e">
         <f>WayBillList_SUMMALL</f>
         <v>#NAME?</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="31"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20"/>
-      <c r="B20" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="66" t="e">
-        <f>WayBillList_PRICE</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
+      <c r="B20" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="71"/>
+      <c r="D20" s="69" t="e">
+        <f>WayBillList_AdditionalCosts</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
+      <c r="B21" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="30"/>
+      <c r="D21" s="41" t="e">
+        <f>WayBillList_PRICE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22"/>
-      <c r="B22" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="40" t="e">
-        <f>WayBillList_DocStatus</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
+      <c r="B23" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="30"/>
+      <c r="D23" s="43" t="e">
+        <f>WayBillList_DocStatus</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D24" s="9"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
+      <c r="A24"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D25" s="9"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="22" t="s">
+      <c r="D25" s="8"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D26" s="8"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="34" t="s">
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C28" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="35"/>
-      <c r="E27" s="47" t="s">
+      <c r="D28" s="48"/>
+      <c r="E28" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F27" s="47" t="s">
+      <c r="F28" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="G27" s="49" t="s">
+      <c r="G28" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="H27" s="47" t="s">
+      <c r="H28" s="35" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="48"/>
-    </row>
-    <row r="29" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="10">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="36"/>
+    </row>
+    <row r="30" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="9">
         <v>1</v>
       </c>
-      <c r="C29" s="68">
+      <c r="C30" s="45">
         <v>2</v>
       </c>
-      <c r="D29" s="69"/>
-      <c r="E29" s="10">
+      <c r="D30" s="46"/>
+      <c r="E30" s="9">
         <v>3</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F30" s="9">
         <v>4</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G30" s="9">
         <v>5</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H30" s="9">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="55" t="e">
+    <row r="31" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="52" t="e">
         <f>MGRP_GrpName</f>
         <v>#NAME?</v>
       </c>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="26" t="e">
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="25" t="e">
         <f>MGRP_AMOUNT</f>
         <v>#NAME?</v>
       </c>
-      <c r="G30" s="15"/>
-      <c r="H30" s="16" t="e">
+      <c r="G31" s="14"/>
+      <c r="H31" s="15" t="e">
         <f>MGRP_SUMM</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
-      <c r="B31" s="11" t="e">
+    <row r="32" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="10" t="e">
         <f>WayBillItems_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="C31" s="59" t="e">
+      <c r="C32" s="26" t="e">
         <f>WayBillItems_MATNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D31" s="60"/>
-      <c r="E31" s="11" t="e">
+      <c r="D32" s="27"/>
+      <c r="E32" s="10" t="e">
         <f>WayBillItems_MSRNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="F31" s="12" t="e">
+      <c r="F32" s="11" t="e">
         <f>WayBillItems_AMOUNT</f>
         <v>#NAME?</v>
       </c>
-      <c r="G31" s="13" t="e">
+      <c r="G32" s="12" t="e">
         <f>WayBillItems_PRICE</f>
         <v>#NAME?</v>
       </c>
-      <c r="H31" s="13" t="e">
-        <f>F31*G31</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F32"/>
-      <c r="G32"/>
-      <c r="H32"/>
-    </row>
-    <row r="33" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F33" s="57" t="s">
+      <c r="H32" s="12" t="e">
+        <f>F32*G32</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+    </row>
+    <row r="34" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F34" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="G33" s="58"/>
-      <c r="H33" s="14" t="s">
+      <c r="G34" s="55"/>
+      <c r="H34" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="23" t="s">
+    <row r="35" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="22" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="34" t="s">
+    <row r="37" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="34" t="s">
+      <c r="C37" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="34" t="s">
+      <c r="D37" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="34" t="s">
+      <c r="E37" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="F36" s="35"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="47" t="s">
+      <c r="F37" s="48"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="35" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="52"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="51"/>
-    </row>
     <row r="38" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="11" t="e">
+      <c r="B38" s="47"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="59"/>
+    </row>
+    <row r="39" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="10" t="e">
         <f>TechProc_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="C38" s="25" t="e">
+      <c r="C39" s="24" t="e">
         <f>TechProc_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="D38" s="24" t="e">
+      <c r="D39" s="23" t="e">
         <f>TechProc_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="E38" s="59" t="e">
+      <c r="E39" s="26" t="e">
         <f>TechProc_PERSONNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="F38" s="60"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="13" t="e">
+      <c r="F39" s="27"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="12" t="e">
         <f>TechProc_OUT</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="39" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="40" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C41" s="20" t="s">
+    <row r="41" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C42" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="21" t="e">
+      <c r="D42" s="20" t="e">
         <f>WayBillList_REASON</f>
         <v>#NAME?</v>
       </c>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-    </row>
-    <row r="42" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42"/>
-      <c r="C42"/>
-      <c r="D42"/>
-      <c r="E42"/>
-      <c r="F42"/>
-      <c r="G42"/>
-      <c r="H42"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
     </row>
     <row r="43" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
     </row>
     <row r="44" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44"/>
-      <c r="C44"/>
-      <c r="D44"/>
-      <c r="E44"/>
-      <c r="F44"/>
-      <c r="G44"/>
-      <c r="H44"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
     </row>
     <row r="45" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-    </row>
-    <row r="46" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+    </row>
+    <row r="46" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+    </row>
     <row r="47" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C48" s="1" t="s">
+    <row r="48" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C49" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="21" t="e">
+      <c r="D49" s="20" t="e">
         <f>WayBillList_MAKEDPERSON</f>
         <v>#NAME?</v>
       </c>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-    </row>
-    <row r="49" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C50" s="1" t="s">
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+    </row>
+    <row r="50" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C51" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D50" s="21" t="e">
+      <c r="D51" s="20" t="e">
         <f>WayBillList_KANAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-    </row>
-    <row r="51" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+    </row>
     <row r="52" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="E36:G37"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="D36:D37"/>
+  <mergeCells count="39">
     <mergeCell ref="B4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="C28:D29"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="D12:D13"/>
@@ -1691,9 +1772,32 @@
     <mergeCell ref="B12:C13"/>
     <mergeCell ref="B6:C7"/>
     <mergeCell ref="B18:C19"/>
-    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="B21:C22"/>
     <mergeCell ref="B14:C15"/>
     <mergeCell ref="B8:C9"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="B23:C24"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="E37:G38"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="F34:G34"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
